--- a/HAZ_ShopTheThao_VersionOfficial/data/TestData.xlsx
+++ b/HAZ_ShopTheThao_VersionOfficial/data/TestData.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15800" windowHeight="3260" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15800" windowHeight="3260" tabRatio="739" firstSheet="5" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="Login" sheetId="1" r:id="rId1"/>
@@ -17,6 +17,12 @@
     <sheet name="ChangePassword" sheetId="3" r:id="rId3"/>
     <sheet name="FindUser" sheetId="4" r:id="rId4"/>
     <sheet name="RemoveUser" sheetId="5" r:id="rId5"/>
+    <sheet name="InsertNhanVien" sheetId="6" r:id="rId6"/>
+    <sheet name="UpdateNhanVien" sheetId="7" r:id="rId7"/>
+    <sheet name="RemoveNhanVien" sheetId="8" r:id="rId8"/>
+    <sheet name="FindNhanVienByUser" sheetId="9" r:id="rId9"/>
+    <sheet name="FindNhanVienBySdt" sheetId="10" r:id="rId10"/>
+    <sheet name="FindNhanVienByHoTen" sheetId="11" r:id="rId11"/>
   </sheets>
   <calcPr calcId="0"/>
   <extLst>
@@ -28,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="62">
   <si>
     <t>username</t>
   </si>
@@ -112,6 +118,108 @@
   </si>
   <si>
     <t>09782159</t>
+  </si>
+  <si>
+    <t>MaNV</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>8</t>
+  </si>
+  <si>
+    <t>Nhân viên không tồn tại!</t>
+  </si>
+  <si>
+    <t>SDT</t>
+  </si>
+  <si>
+    <t>Mã nhân viên không được bỏ trống!</t>
+  </si>
+  <si>
+    <t>TenNV</t>
+  </si>
+  <si>
+    <t>GioiTinh</t>
+  </si>
+  <si>
+    <t>SoDienThoai</t>
+  </si>
+  <si>
+    <t>Gmail</t>
+  </si>
+  <si>
+    <t>Cmnd</t>
+  </si>
+  <si>
+    <t>DiaChi</t>
+  </si>
+  <si>
+    <t>MaChucVu</t>
+  </si>
+  <si>
+    <t>Path</t>
+  </si>
+  <si>
+    <t>Lê Văn Thành</t>
+  </si>
+  <si>
+    <t>true</t>
+  </si>
+  <si>
+    <t>0973438765</t>
+  </si>
+  <si>
+    <t>levanthanh039@gmail.com</t>
+  </si>
+  <si>
+    <t>337647645</t>
+  </si>
+  <si>
+    <t>Cần Thơ</t>
+  </si>
+  <si>
+    <t>0973438766</t>
+  </si>
+  <si>
+    <t>337647646</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>0973438767</t>
+  </si>
+  <si>
+    <t>337647647</t>
+  </si>
+  <si>
+    <t>Thêm thất bại!</t>
+  </si>
+  <si>
+    <t>Không được bỏ trống!</t>
+  </si>
+  <si>
+    <t>HoTen</t>
+  </si>
+  <si>
+    <t>Không tìm thấy!</t>
+  </si>
+  <si>
+    <t>Huỳnh Văn Đạt</t>
+  </si>
+  <si>
+    <t>Võ Lê Nhật Linh</t>
+  </si>
+  <si>
+    <t>src\com\software\images\CHOPPER.jpg</t>
+  </si>
+  <si>
+    <t>Nhân viên chưa được xóa!</t>
   </si>
 </sst>
 </file>
@@ -204,7 +312,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -213,6 +321,7 @@
     <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -563,12 +672,110 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:B3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="21.75" customWidth="1"/>
+    <col min="2" max="2" width="40.08203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A2" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A3" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A4" s="3"/>
+      <c r="B4" s="3" t="s">
+        <v>34</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="26.6640625" customWidth="1"/>
+    <col min="2" max="2" width="43.4140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A2" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A3" s="3"/>
+      <c r="B3" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A4" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>57</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection sqref="A1:C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -784,7 +991,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
@@ -841,4 +1048,415 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:J4"/>
+  <sheetViews>
+    <sheetView topLeftCell="D1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E27" sqref="E27"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="4" width="14.9140625" customWidth="1"/>
+    <col min="5" max="5" width="30.33203125" customWidth="1"/>
+    <col min="6" max="9" width="14.9140625" customWidth="1"/>
+    <col min="10" max="10" width="32.4140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A2" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="E2" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="I2" s="3"/>
+      <c r="J2" s="3" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A3" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="E3" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="H3" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="I3" s="3"/>
+      <c r="J3" s="3" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A4" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="B4" s="3"/>
+      <c r="C4" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="E4" s="8"/>
+      <c r="F4" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="H4" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="I4" s="3"/>
+      <c r="J4" s="3" t="s">
+        <v>55</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="E2" r:id="rId1"/>
+    <hyperlink ref="E3" r:id="rId2"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:J4"/>
+  <sheetViews>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="16.75" customWidth="1"/>
+    <col min="3" max="3" width="12.5" customWidth="1"/>
+    <col min="4" max="4" width="13.58203125" customWidth="1"/>
+    <col min="5" max="5" width="26" customWidth="1"/>
+    <col min="6" max="6" width="13.83203125" customWidth="1"/>
+    <col min="7" max="7" width="12.33203125" customWidth="1"/>
+    <col min="9" max="9" width="18.33203125" customWidth="1"/>
+    <col min="10" max="10" width="22.9140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A2" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="E2" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="I2" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="J2" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A3" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="E3" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="H3" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="I3" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="J3" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A4" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="B4" s="3"/>
+      <c r="C4" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="E4" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="H4" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="I4" s="3"/>
+      <c r="J4" s="3" t="s">
+        <v>55</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="E3" r:id="rId1"/>
+    <hyperlink ref="E2" r:id="rId2"/>
+    <hyperlink ref="E4" r:id="rId3"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C4"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="25.75" customWidth="1"/>
+    <col min="3" max="3" width="37.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A2" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A3" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A4" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>32</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:B4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="22.6640625" customWidth="1"/>
+    <col min="2" max="2" width="35.25" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A2" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A3" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A4" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>32</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>